--- a/biology/Histoire de la zoologie et de la botanique/Gaudich/Gaudich..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gaudich/Gaudich..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Gaudichaud-Beaupré est un botaniste français, né le 4 septembre 1789 à Angoulême et mort le 16 janvier 1854 à Paris.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la pharmacologie, la chimie et l'herbologie à Cognac, auprès de son beau-frère, et à Angoulême. Il achève ses études à Paris. Il travaille un temps dans un laboratoire de chimie à Cognac avant de venir à Paris à l’invitation de botanistes du Muséum national d'histoire naturelle. Il étudie à l’école de médecine navale d’Anvers de 1811 à 1814.
 Il est choisi par Jean René Constant Quoy (1790-1869) pour participer comme botaniste à l'expédition autour du monde de 1817 à 1820. Elle est dirigée par Freycinet (1779-1842) et est constituée des vaisseaux l’Uranie et la Physicienne.  Il herborise notamment à Shark Bay, à Port Jackson et dans les Montagnes bleues (Blue Mountains). Il réussit à sauver une partie des riches collections que l’expédition rapporte lorsque l’Uranie fait naufrage aux Malouines.
@@ -546,7 +560,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voyage autour du monde exécuté pendant les années 1836 et 1837 sur la corvette La Bonite commandée par Vaillant... Histoire naturelle. Botanique (Arthus-Bertrand, Paris, 1844-1846) : Scan-Book.
 Voyage autour du monde... exécuté sur les corvettes de S. M., ″l'Uranie″ et ″la Physicienne″, pendant les années 1817, 1818, 1819 et 1820, publié... par M. Louis de Freycinet,... Botanique, par M. Charles Gaudichaud [avec la collaboration de MM. Persoon, Agardh et Schewaegrichen] (Pillet aîné, Paris, 1826) : Scan-Book.
@@ -578,7 +594,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Marie-Louise Bauchot, Jacques Daget &amp; Roland Bauchot (1997). Ichthyology in France at the Beginning of the 19th Century : The “Histoire Naturelle des Poissons“ of Cuvier (1769-1832) and Valenciennes (1794-1865). in Collection building in ichthyology and herpetology (PIETSCH T.W.ANDERSON W.D., dir.), American Society of Ichthyologists and Herpetologists : 27-80.  (ISBN 0-935868-91-7)
 Jean Dhombres (dir.) (1995). Aventures scientifiques. Savants en Poitou-Charentes du XVIe au XXe siècle. Les éditions de l’Actualité Poitou-Charentes (Poitiers) : 262 p.  (ISBN 2-911320-00-X)</t>
@@ -609,7 +627,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Voyage d'exploration scientifique</t>
         </is>
